--- a/var03/22.xlsx
+++ b/var03/22.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02A4A81-C32C-40FB-9667-74750027755D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="3960" yWindow="3030" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID процесса B</t>
   </si>
@@ -30,11 +31,14 @@
   <si>
     <t>1; 4</t>
   </si>
+  <si>
+    <t>Время</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -44,15 +48,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -75,15 +91,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -93,6 +119,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -186,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -396,172 +471,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="10"/>
+    <col min="6" max="38" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>9</v>
+      </c>
+      <c r="O1">
+        <v>10</v>
+      </c>
+      <c r="P1">
+        <v>11</v>
+      </c>
+      <c r="Q1">
+        <v>12</v>
+      </c>
+      <c r="R1">
+        <v>13</v>
+      </c>
+      <c r="S1">
+        <v>14</v>
+      </c>
+      <c r="T1">
+        <v>15</v>
+      </c>
+      <c r="U1">
+        <v>16</v>
+      </c>
+      <c r="V1">
+        <v>17</v>
+      </c>
+      <c r="W1">
+        <v>18</v>
+      </c>
+      <c r="X1">
+        <v>19</v>
+      </c>
+      <c r="Y1">
+        <v>20</v>
+      </c>
+      <c r="Z1">
+        <v>21</v>
+      </c>
+      <c r="AA1">
+        <v>22</v>
+      </c>
+      <c r="AB1">
+        <v>23</v>
+      </c>
+      <c r="AC1">
+        <v>24</v>
+      </c>
+      <c r="AD1">
+        <v>25</v>
+      </c>
+      <c r="AE1">
+        <v>26</v>
+      </c>
+      <c r="AF1">
+        <v>27</v>
+      </c>
+      <c r="AG1">
+        <v>28</v>
+      </c>
+      <c r="AH1">
+        <v>29</v>
+      </c>
+      <c r="AI1">
+        <v>30</v>
+      </c>
+      <c r="AJ1">
+        <v>31</v>
+      </c>
+      <c r="AK1">
+        <v>32</v>
+      </c>
+      <c r="AL1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="D2" s="9">
+        <f>B2</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="D3" s="9">
+        <f>B3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="D4" s="10">
+        <f>D2+B4</f>
+        <v>8</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="D5" s="10">
+        <f>B5</f>
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="D6" s="10">
+        <f>D4+B6</f>
+        <v>14</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="D7" s="10">
+        <f>MAX(D2,D5)+B7</f>
+        <v>17</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="D8" s="10">
+        <f>B8</f>
+        <v>16</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="D9" s="10">
+        <f>B9</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="D10" s="7">
+        <f>MAX(D6,D8) + B10</f>
+        <v>23</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="D11" s="10">
+        <f>B11</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="D12" s="10">
+        <f>D7+B12</f>
+        <v>19</v>
+      </c>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="D13" s="10">
+        <f>B13+D11</f>
+        <v>16</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
